--- a/Planilha sala.xlsx
+++ b/Planilha sala.xlsx
@@ -1,57 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio\Desktop\-\Projetos programação\Horarios-CEFET\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA966B3D-1BE0-48A7-86D1-316FD2F12A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Sala</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>Limitações</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,41 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -115,39 +147,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,10 +211,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -226,173 +256,214 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Limitações</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sala 148</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Andar 1 N</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Planilha sala.xlsx
+++ b/Planilha sala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,23 @@
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DEMAT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>N3-N6</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Planilha sala.xlsx
+++ b/Planilha sala.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio\Desktop\-\Programação\Projetos programação\Horarios-CEFET\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2C71E7-2685-4816-9CC7-B4634D863AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Sala 148</t>
+  </si>
+  <si>
+    <t>Andar 1 N</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>DEMAT</t>
+  </si>
+  <si>
+    <t>N3-N6</t>
+  </si>
+  <si>
+    <t>Limitacoes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,64 +405,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sala</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Local</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Limitações</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sala 148</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Andar 1 N</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DEMAT</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N3-N6</t>
-        </is>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Planilha sala.xlsx
+++ b/Planilha sala.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tulio\Desktop\-\Programação\Projetos programação\Horarios-CEFET\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2C71E7-2685-4816-9CC7-B4634D863AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20475" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sala</t>
   </si>
@@ -28,51 +22,392 @@
     <t>Local</t>
   </si>
   <si>
-    <t>Sala 148</t>
+    <t>Limitacoes</t>
   </si>
   <si>
     <t>Andar 1 N</t>
   </si>
   <si>
-    <t>Teste</t>
+    <t>007</t>
   </si>
   <si>
     <t>DEMAT</t>
   </si>
   <si>
-    <t>N3-N6</t>
-  </si>
-  <si>
-    <t>Limitacoes</t>
+    <t>N3-N6-ESPECIFICA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -95,27 +430,319 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -400,24 +1027,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,19 +1052,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -449,5 +1076,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Planilha sala.xlsx
+++ b/Planilha sala.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,10 +488,8 @@
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>008</t>
-        </is>
+      <c r="A5" t="n">
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -501,6 +499,23 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>ESPECIFICA-N4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Andar 1 N</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ESPECIFICA</t>
         </is>
       </c>
     </row>
